--- a/exercisesLifeContingencies/survivalModels/lifeTables3/GRF_95_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/lifeTables3/GRF_95_comm.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -480,15 +480,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Sx</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Cx</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Mx</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Rx</t>
         </is>
@@ -520,12 +525,15 @@
         <v>2502142.85950827</v>
       </c>
       <c r="I2" t="n">
+        <v>57679546.2830834</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>3763.736172758637</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>283698.7716973641</v>
       </c>
     </row>
@@ -555,12 +563,15 @@
         <v>2402142.85950827</v>
       </c>
       <c r="I3" t="n">
+        <v>55177403.42357513</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>3763.736172758637</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>279935.0355246054</v>
       </c>
     </row>
@@ -590,12 +601,15 @@
         <v>2305989.013354423</v>
       </c>
       <c r="I4" t="n">
+        <v>52775260.56406686</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>3763.736172758637</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>276171.2993518469</v>
       </c>
     </row>
@@ -625,12 +639,15 @@
         <v>2213533.392052649</v>
       </c>
       <c r="I5" t="n">
+        <v>50469271.55071245</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>3763.736172758638</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>272407.5631790882</v>
       </c>
     </row>
@@ -660,12 +677,15 @@
         <v>2124633.756185557</v>
       </c>
       <c r="I6" t="n">
+        <v>48255738.15865979</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>3763.736172758637</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>268643.8270063295</v>
       </c>
     </row>
@@ -695,12 +715,15 @@
         <v>2039153.337082585</v>
       </c>
       <c r="I7" t="n">
+        <v>46131104.40247424</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>3763.736172758638</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>264880.0908335709</v>
       </c>
     </row>
@@ -730,12 +753,15 @@
         <v>1956960.626406649</v>
       </c>
       <c r="I8" t="n">
+        <v>44091951.06539165</v>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>3763.736172758637</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>261116.3546608123</v>
       </c>
     </row>
@@ -765,12 +791,15 @@
         <v>1877929.173833635</v>
       </c>
       <c r="I9" t="n">
+        <v>42134990.43898501</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>3763.736172758638</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>257352.6184880536</v>
       </c>
     </row>
@@ -800,12 +829,15 @@
         <v>1801937.392513428</v>
       </c>
       <c r="I10" t="n">
+        <v>40257061.26515137</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>3763.736172758637</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>253588.882315295</v>
       </c>
     </row>
@@ -835,12 +867,15 @@
         <v>1728868.37201323</v>
       </c>
       <c r="I11" t="n">
+        <v>38455123.87263793</v>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>3763.736172758637</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>249825.1461425364</v>
       </c>
     </row>
@@ -870,12 +905,15 @@
         <v>1658609.698455347</v>
       </c>
       <c r="I12" t="n">
+        <v>36726255.50062471</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>3763.736172758637</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>246061.4099697777</v>
       </c>
     </row>
@@ -905,12 +943,15 @@
         <v>1591053.281572767</v>
       </c>
       <c r="I13" t="n">
+        <v>35067645.80216937</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>3763.736172758638</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>242297.6737970191</v>
       </c>
     </row>
@@ -940,12 +981,15 @@
         <v>1526095.188416441</v>
       </c>
       <c r="I14" t="n">
+        <v>33476592.5205966</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>3763.736172758637</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>238533.9376242605</v>
       </c>
     </row>
@@ -975,12 +1019,15 @@
         <v>1463635.483458434</v>
       </c>
       <c r="I15" t="n">
+        <v>31950497.33218016</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>3763.736172758638</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>234770.2014515018</v>
       </c>
     </row>
@@ -1010,12 +1057,15 @@
         <v>1403578.074844966</v>
       </c>
       <c r="I16" t="n">
+        <v>30486861.84872173</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>3763.736172758637</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>231006.4652787432</v>
       </c>
     </row>
@@ -1045,12 +1095,15 @@
         <v>1345830.566562786</v>
       </c>
       <c r="I17" t="n">
+        <v>29083283.77387676</v>
+      </c>
+      <c r="J17" t="n">
         <v>16.97294090505288</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>3763.736172758638</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>227242.7291059846</v>
       </c>
     </row>
@@ -1080,12 +1133,15 @@
         <v>1290304.116291458</v>
       </c>
       <c r="I18" t="n">
+        <v>27737453.20731397</v>
+      </c>
+      <c r="J18" t="n">
         <v>16.41758932345627</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>3746.763231853584</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>223478.9929332259</v>
       </c>
     </row>
@@ -1115,12 +1171,15 @@
         <v>1236930.271663779</v>
       </c>
       <c r="I19" t="n">
+        <v>26447149.09102252</v>
+      </c>
+      <c r="J19" t="n">
         <v>15.87975625995426</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>3730.345642530128</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>219732.2297013723</v>
       </c>
     </row>
@@ -1150,12 +1209,15 @@
         <v>1185625.684803411</v>
       </c>
       <c r="I20" t="n">
+        <v>25210218.81935874</v>
+      </c>
+      <c r="J20" t="n">
         <v>15.3589187249431</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>3714.465886270174</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>216001.8840588422</v>
       </c>
     </row>
@@ -1185,12 +1247,15 @@
         <v>1136310.231040087</v>
       </c>
       <c r="I21" t="n">
+        <v>24024593.13455533</v>
+      </c>
+      <c r="J21" t="n">
         <v>14.85456794655188</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>3699.106967545231</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>212287.418172572</v>
       </c>
     </row>
@@ -1220,12 +1285,15 @@
         <v>1088906.884417153</v>
       </c>
       <c r="I22" t="n">
+        <v>22888282.90351524</v>
+      </c>
+      <c r="J22" t="n">
         <v>14.39687799632724</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>3684.252399598679</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>208588.3112050268</v>
       </c>
     </row>
@@ -1255,12 +1323,15 @@
         <v>1043341.59800151</v>
       </c>
       <c r="I23" t="n">
+        <v>21799376.01909809</v>
+      </c>
+      <c r="J23" t="n">
         <v>14.4197738517467</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>3669.855521602351</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>204904.0588054281</v>
       </c>
     </row>
@@ -1290,12 +1361,15 @@
         <v>999543.2194798499</v>
       </c>
       <c r="I24" t="n">
+        <v>20756034.42109658</v>
+      </c>
+      <c r="J24" t="n">
         <v>14.83194447946706</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>3655.435747750605</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>201234.2032838258</v>
       </c>
     </row>
@@ -1325,12 +1399,15 @@
         <v>957443.813752105</v>
       </c>
       <c r="I25" t="n">
+        <v>19756491.20161673</v>
+      </c>
+      <c r="J25" t="n">
         <v>15.38072993141524</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>3640.603803271138</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>197578.7675360751</v>
       </c>
     </row>
@@ -1360,12 +1437,15 @@
         <v>916978.4478814452</v>
       </c>
       <c r="I26" t="n">
+        <v>18799047.38786462</v>
+      </c>
+      <c r="J26" t="n">
         <v>15.88281009747346</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>3625.223073339722</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>193938.163732804</v>
       </c>
     </row>
@@ -1395,12 +1475,15 @@
         <v>878084.8229665112</v>
       </c>
       <c r="I27" t="n">
+        <v>17882068.93998318</v>
+      </c>
+      <c r="J27" t="n">
         <v>16.32220247267343</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>3609.340263242249</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>190312.9406594643</v>
       </c>
     </row>
@@ -1430,12 +1513,15 @@
         <v>840702.9895122492</v>
       </c>
       <c r="I28" t="n">
+        <v>17003984.11701667</v>
+      </c>
+      <c r="J28" t="n">
         <v>16.71676679196541</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>3593.018060769576</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>186703.600396222</v>
       </c>
     </row>
@@ -1465,12 +1551,15 @@
         <v>804775.2410856239</v>
       </c>
       <c r="I29" t="n">
+        <v>16163281.12750442</v>
+      </c>
+      <c r="J29" t="n">
         <v>17.07535104042704</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>3576.301293977611</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>183110.5823354525</v>
       </c>
     </row>
@@ -1500,12 +1589,15 @@
         <v>770246.0459037375</v>
       </c>
       <c r="I30" t="n">
+        <v>15358505.8864188</v>
+      </c>
+      <c r="J30" t="n">
         <v>17.40887567238202</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>3559.225942937183</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>179534.2810414748</v>
       </c>
     </row>
@@ -1535,12 +1627,15 @@
         <v>737061.9720414258</v>
       </c>
       <c r="I31" t="n">
+        <v>14588259.84051506</v>
+      </c>
+      <c r="J31" t="n">
         <v>17.73287690427284</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>3541.817067264801</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>175975.0550985377</v>
       </c>
     </row>
@@ -1570,12 +1665,15 @@
         <v>705171.6175879521</v>
       </c>
       <c r="I32" t="n">
+        <v>13851197.86847363</v>
+      </c>
+      <c r="J32" t="n">
         <v>18.04582014509835</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>3524.084190360529</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>172433.2380312729</v>
       </c>
     </row>
@@ -1605,12 +1703,15 @@
         <v>674525.5481057472</v>
       </c>
       <c r="I33" t="n">
+        <v>13146026.25088568</v>
+      </c>
+      <c r="J33" t="n">
         <v>18.36335543294307</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>3506.03837021543</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>168909.1538409123</v>
       </c>
     </row>
@@ -1640,12 +1741,15 @@
         <v>645076.2194237724</v>
       </c>
       <c r="I34" t="n">
+        <v>12471500.70277993</v>
+      </c>
+      <c r="J34" t="n">
         <v>18.68504020440958</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>3487.675014782487</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>165403.1154706969</v>
       </c>
     </row>
@@ -1675,12 +1779,15 @@
         <v>616777.9205849987</v>
       </c>
       <c r="I35" t="n">
+        <v>11826424.48335616</v>
+      </c>
+      <c r="J35" t="n">
         <v>19.01816514159539</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>3468.989974578078</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>161915.4404559144</v>
       </c>
     </row>
@@ -1710,12 +1817,15 @@
         <v>589586.7028956128</v>
       </c>
       <c r="I36" t="n">
+        <v>11209646.56277116</v>
+      </c>
+      <c r="J36" t="n">
         <v>19.36618173918225</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>3449.971809436482</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>158446.4504813363</v>
       </c>
     </row>
@@ -1745,12 +1855,15 @@
         <v>563460.319436345</v>
       </c>
       <c r="I37" t="n">
+        <v>10620059.85987555</v>
+      </c>
+      <c r="J37" t="n">
         <v>19.72932944339288</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>3430.6056276973</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>154996.4786718999</v>
       </c>
     </row>
@@ -1780,12 +1893,15 @@
         <v>538358.1630610959</v>
       </c>
       <c r="I38" t="n">
+        <v>10056599.54043921</v>
+      </c>
+      <c r="J38" t="n">
         <v>20.10751497721495</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>3410.876298253907</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>151565.8730442026</v>
       </c>
     </row>
@@ -1815,12 +1931,15 @@
         <v>514241.2035681843</v>
       </c>
       <c r="I39" t="n">
+        <v>9518241.37737811</v>
+      </c>
+      <c r="J39" t="n">
         <v>20.47807602164062</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>3390.768783276692</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>148154.9967459487</v>
       </c>
     </row>
@@ -1850,12 +1969,15 @@
         <v>491071.9269553621</v>
       </c>
       <c r="I40" t="n">
+        <v>9004000.173809925</v>
+      </c>
+      <c r="J40" t="n">
         <v>20.82376476478205</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>3370.290707255052</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>144764.227962672</v>
       </c>
     </row>
@@ -1885,12 +2007,15 @@
         <v>468814.2544421316</v>
       </c>
       <c r="I41" t="n">
+        <v>8512928.246854562</v>
+      </c>
+      <c r="J41" t="n">
         <v>21.12791552836199</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>3349.46694249027</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>141393.9372554169</v>
       </c>
     </row>
@@ -1920,12 +2045,15 @@
         <v>447433.4700210976</v>
       </c>
       <c r="I42" t="n">
+        <v>8044113.992412432</v>
+      </c>
+      <c r="J42" t="n">
         <v>21.37065984194769</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>3328.339026961907</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>138044.4703129266</v>
       </c>
     </row>
@@ -1955,12 +2083,15 @@
         <v>426896.1513779396</v>
       </c>
       <c r="I43" t="n">
+        <v>7596680.522391333</v>
+      </c>
+      <c r="J43" t="n">
         <v>21.54691736895694</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>3306.96836711996</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>134716.1312859647</v>
       </c>
     </row>
@@ -1990,12 +2121,15 @@
         <v>407170.1002655143</v>
       </c>
       <c r="I44" t="n">
+        <v>7169784.371013395</v>
+      </c>
+      <c r="J44" t="n">
         <v>21.64194441033066</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>3285.421449751002</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>131409.1629188448</v>
       </c>
     </row>
@@ -2025,12 +2159,15 @@
         <v>388224.2903440127</v>
       </c>
       <c r="I45" t="n">
+        <v>6762614.270747879</v>
+      </c>
+      <c r="J45" t="n">
         <v>21.66662127170072</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>3263.779505340673</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>128123.7414690938</v>
       </c>
     </row>
@@ -2060,12 +2197,15 @@
         <v>370028.8073639023</v>
       </c>
       <c r="I46" t="n">
+        <v>6374389.980403867</v>
+      </c>
+      <c r="J46" t="n">
         <v>21.68118924290119</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>3242.112884068971</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>124859.9619637531</v>
       </c>
     </row>
@@ -2095,12 +2235,15 @@
         <v>352554.8172735294</v>
       </c>
       <c r="I47" t="n">
+        <v>6004361.173039963</v>
+      </c>
+      <c r="J47" t="n">
         <v>21.7562166472455</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>3220.43169482607</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>121617.8490796841</v>
       </c>
     </row>
@@ -2130,12 +2273,15 @@
         <v>335774.5849143368</v>
       </c>
       <c r="I48" t="n">
+        <v>5651806.355766434</v>
+      </c>
+      <c r="J48" t="n">
         <v>21.94322968518999</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>3198.675478178825</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>118397.4173848581</v>
       </c>
     </row>
@@ -2165,12 +2311,15 @@
         <v>319661.502324068</v>
       </c>
       <c r="I49" t="n">
+        <v>5316031.770852097</v>
+      </c>
+      <c r="J49" t="n">
         <v>22.18956568915538</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>3176.732248493635</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>115198.7419066792</v>
       </c>
     </row>
@@ -2200,12 +2349,15 @@
         <v>304190.096909264</v>
       </c>
       <c r="I50" t="n">
+        <v>4996370.268528031</v>
+      </c>
+      <c r="J50" t="n">
         <v>22.42121460126819</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>3154.542682804479</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>112022.0096581856</v>
       </c>
     </row>
@@ -2235,12 +2387,15 @@
         <v>289335.9351145647</v>
       </c>
       <c r="I51" t="n">
+        <v>4692180.171618767</v>
+      </c>
+      <c r="J51" t="n">
         <v>22.66036644850218</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>3132.121468203211</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>108867.4669753811</v>
       </c>
     </row>
@@ -2270,12 +2425,15 @@
         <v>275075.5084496475</v>
       </c>
       <c r="I52" t="n">
+        <v>4402844.236504202</v>
+      </c>
+      <c r="J52" t="n">
         <v>22.92560915276748</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>3109.461101754709</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>105735.3455071779</v>
       </c>
     </row>
@@ -2305,12 +2463,15 @@
         <v>261386.2200998294</v>
       </c>
       <c r="I53" t="n">
+        <v>4127768.728054554</v>
+      </c>
+      <c r="J53" t="n">
         <v>23.23100502825386</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>3086.535492601942</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>102625.8844054232</v>
       </c>
     </row>
@@ -2340,12 +2501,15 @@
         <v>248246.3684495417</v>
       </c>
       <c r="I54" t="n">
+        <v>3866382.507954725</v>
+      </c>
+      <c r="J54" t="n">
         <v>23.589085142622</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>3063.304487573688</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>99539.34891282127</v>
       </c>
     </row>
@@ -2375,12 +2539,15 @@
         <v>235635.1267139087</v>
       </c>
       <c r="I55" t="n">
+        <v>3618136.139505182</v>
+      </c>
+      <c r="J55" t="n">
         <v>24.01086987738703</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>3039.715402431066</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>96476.04442524757</v>
       </c>
     </row>
@@ -2410,12 +2577,15 @@
         <v>223532.5218224811</v>
       </c>
       <c r="I56" t="n">
+        <v>3382501.012791274</v>
+      </c>
+      <c r="J56" t="n">
         <v>24.50031051469983</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>3015.704532553679</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>93436.3290228165</v>
       </c>
     </row>
@@ -2445,12 +2615,15 @@
         <v>211919.4126044474</v>
       </c>
       <c r="I57" t="n">
+        <v>3158968.490968792</v>
+      </c>
+      <c r="J57" t="n">
         <v>25.06510407079542</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>2991.204222038979</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>90420.62449026282</v>
       </c>
     </row>
@@ -2480,12 +2653,15 @@
         <v>200777.4617437758</v>
       </c>
       <c r="I58" t="n">
+        <v>2947049.078364345</v>
+      </c>
+      <c r="J58" t="n">
         <v>25.70753524177913</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>2966.139117968183</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>87429.42026822384</v>
       </c>
     </row>
@@ -2515,12 +2691,15 @@
         <v>190089.1125587393</v>
       </c>
       <c r="I59" t="n">
+        <v>2746271.61662057</v>
+      </c>
+      <c r="J59" t="n">
         <v>26.42830209722184</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>2940.431582726404</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>84463.28115025567</v>
       </c>
     </row>
@@ -2550,12 +2729,15 @@
         <v>179837.5612622152</v>
       </c>
       <c r="I60" t="n">
+        <v>2556182.50406183</v>
+      </c>
+      <c r="J60" t="n">
         <v>27.2285703739635</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>2914.003280629182</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>81522.84956752925</v>
       </c>
     </row>
@@ -2585,12 +2767,15 @@
         <v>170006.72870227</v>
       </c>
       <c r="I61" t="n">
+        <v>2376344.942799615</v>
+      </c>
+      <c r="J61" t="n">
         <v>28.10610118598415</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>2886.774710255219</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>78608.84628690008</v>
       </c>
     </row>
@@ -2620,12 +2805,15 @@
         <v>160581.2336573121</v>
       </c>
       <c r="I62" t="n">
+        <v>2206338.214097345</v>
+      </c>
+      <c r="J62" t="n">
         <v>29.05753158990247</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>2858.668609069235</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>75722.07157664486</v>
       </c>
     </row>
@@ -2655,12 +2843,15 @@
         <v>151546.3637537309</v>
       </c>
       <c r="I63" t="n">
+        <v>2045756.980440033</v>
+      </c>
+      <c r="J63" t="n">
         <v>29.89950098373858</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>2829.611077479332</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>72863.40296757563</v>
       </c>
     </row>
@@ -2690,12 +2881,15 @@
         <v>142888.0463780311</v>
       </c>
       <c r="I64" t="n">
+        <v>1894210.616686302</v>
+      </c>
+      <c r="J64" t="n">
         <v>30.64274995634188</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>2799.711576495594</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>70033.79189009628</v>
       </c>
     </row>
@@ -2725,12 +2919,15 @@
         <v>134592.6407100728</v>
       </c>
       <c r="I65" t="n">
+        <v>1751322.57030827</v>
+      </c>
+      <c r="J65" t="n">
         <v>31.52612789858232</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>2769.068826539252</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>67234.08031360069</v>
       </c>
     </row>
@@ -2760,12 +2957,15 @@
         <v>126646.931856223</v>
       </c>
       <c r="I66" t="n">
+        <v>1616729.929598198</v>
+      </c>
+      <c r="J66" t="n">
         <v>32.72786163019266</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>2737.542698640669</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>64465.01148706145</v>
       </c>
     </row>
@@ -2795,12 +2995,15 @@
         <v>119038.3533169584</v>
       </c>
       <c r="I67" t="n">
+        <v>1490082.997741975</v>
+      </c>
+      <c r="J67" t="n">
         <v>34.37536493802934</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>2704.814837010477</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>61727.46878842078</v>
       </c>
     </row>
@@ -2830,12 +3033,15 @@
         <v>111755.1402754495</v>
       </c>
       <c r="I68" t="n">
+        <v>1371044.644425016</v>
+      </c>
+      <c r="J68" t="n">
         <v>36.50802104982943</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>2670.439472072447</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>59022.6539514103</v>
       </c>
     </row>
@@ -2865,12 +3071,15 @@
         <v>104786.4261773982</v>
       </c>
       <c r="I69" t="n">
+        <v>1259289.504149567</v>
+      </c>
+      <c r="J69" t="n">
         <v>38.97711465513235</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>2633.931451022618</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>56352.21447933785</v>
       </c>
     </row>
@@ -2900,12 +3109,15 @@
         <v>98122.24756570644</v>
       </c>
       <c r="I70" t="n">
+        <v>1154503.077972169</v>
+      </c>
+      <c r="J70" t="n">
         <v>41.61455219079676</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>2594.954336367486</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>53718.28302831524</v>
       </c>
     </row>
@@ -2935,12 +3147,15 @@
         <v>91753.36063065792</v>
       </c>
       <c r="I71" t="n">
+        <v>1056380.830406462</v>
+      </c>
+      <c r="J71" t="n">
         <v>44.28334847138589</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>2553.339784176689</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>51123.32869194775</v>
       </c>
     </row>
@@ -2970,12 +3185,15 @@
         <v>85671.04543760976</v>
       </c>
       <c r="I72" t="n">
+        <v>964627.4697758043</v>
+      </c>
+      <c r="J72" t="n">
         <v>46.87031275197988</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>2509.056435705303</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>48569.98890777106</v>
       </c>
     </row>
@@ -3005,12 +3223,15 @@
         <v>79866.94879276562</v>
       </c>
       <c r="I73" t="n">
+        <v>878956.4243381945</v>
+      </c>
+      <c r="J73" t="n">
         <v>49.28392218862549</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>2462.186122953323</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>46060.93247206575</v>
       </c>
     </row>
@@ -3040,12 +3261,15 @@
         <v>74332.95694701359</v>
       </c>
       <c r="I74" t="n">
+        <v>799089.4755454288</v>
+      </c>
+      <c r="J74" t="n">
         <v>51.45489466286649</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>2412.902200764698</v>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>43598.74634911242</v>
       </c>
     </row>
@@ -3075,12 +3299,15 @@
         <v>69061.09486367145</v>
       </c>
       <c r="I75" t="n">
+        <v>724756.5185984152</v>
+      </c>
+      <c r="J75" t="n">
         <v>53.33079335950266</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>2361.447306101831</v>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>41185.84414834774</v>
       </c>
     </row>
@@ -3110,12 +3337,15 @@
         <v>64043.45160127456</v>
       </c>
       <c r="I76" t="n">
+        <v>655695.4237347438</v>
+      </c>
+      <c r="J76" t="n">
         <v>54.87483899535992</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>2308.116512742328</v>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>38824.39684224591</v>
       </c>
     </row>
@@ -3145,12 +3375,15 @@
         <v>59272.12541156013</v>
       </c>
       <c r="I77" t="n">
+        <v>591651.9721334693</v>
+      </c>
+      <c r="J77" t="n">
         <v>56.12911475242741</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>2253.241673746968</v>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>36516.28032950358</v>
       </c>
     </row>
@@ -3180,12 +3413,15 @@
         <v>54739.18660659931</v>
       </c>
       <c r="I78" t="n">
+        <v>532379.8467219092</v>
+      </c>
+      <c r="J78" t="n">
         <v>57.37214154745482</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>2197.112558994541</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>34263.03865575661</v>
       </c>
     </row>
@@ -3215,12 +3451,15 @@
         <v>50436.72071658172</v>
       </c>
       <c r="I79" t="n">
+        <v>477640.66011531</v>
+      </c>
+      <c r="J79" t="n">
         <v>58.85667383271185</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>2139.740417447086</v>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>32065.92609676206</v>
       </c>
     </row>
@@ -3250,12 +3489,15 @@
         <v>46357.10642541994</v>
       </c>
       <c r="I80" t="n">
+        <v>427203.9393987282</v>
+      </c>
+      <c r="J80" t="n">
         <v>60.75160094798841</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>2080.883743614374</v>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>29926.18567931498</v>
       </c>
     </row>
@@ -3285,12 +3527,15 @@
         <v>42493.25705005864</v>
       </c>
       <c r="I81" t="n">
+        <v>380846.8329733083</v>
+      </c>
+      <c r="J81" t="n">
         <v>63.15096137553843</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>2020.132142666386</v>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>27845.30193570061</v>
       </c>
     </row>
@@ -3320,12 +3565,15 @@
         <v>38838.76886700538</v>
       </c>
       <c r="I82" t="n">
+        <v>338353.5759232497</v>
+      </c>
+      <c r="J82" t="n">
         <v>66.0860865545163</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>1956.981181290848</v>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>25825.16979303421</v>
       </c>
     </row>
@@ -3355,12 +3603,15 @@
         <v>35387.9888831374</v>
       </c>
       <c r="I83" t="n">
+        <v>299514.8070562443</v>
+      </c>
+      <c r="J83" t="n">
         <v>69.53340639088549</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>1890.895094736331</v>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>23868.18861174336</v>
       </c>
     </row>
@@ -3390,12 +3641,15 @@
         <v>32136.01729289579</v>
       </c>
       <c r="I84" t="n">
+        <v>264126.8181731069</v>
+      </c>
+      <c r="J84" t="n">
         <v>73.42226294111627</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>1821.361688345446</v>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>21977.29351700703</v>
       </c>
     </row>
@@ -3425,12 +3679,15 @@
         <v>29078.65493943896</v>
       </c>
       <c r="I85" t="n">
+        <v>231990.800880211</v>
+      </c>
+      <c r="J85" t="n">
         <v>77.59069562435786</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>1747.93942540433</v>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>20155.93182866159</v>
       </c>
     </row>
@@ -3460,12 +3717,15 @@
         <v>26212.30570867159</v>
       </c>
       <c r="I86" t="n">
+        <v>202912.1459407721</v>
+      </c>
+      <c r="J86" t="n">
         <v>81.67768892172691</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>1670.348729779972</v>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>18407.99240325726</v>
       </c>
     </row>
@@ -3495,12 +3755,15 @@
         <v>23533.79137471194</v>
       </c>
       <c r="I87" t="n">
+        <v>176699.8402321005</v>
+      </c>
+      <c r="J87" t="n">
         <v>85.34248948198913</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>1588.671040858245</v>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>16737.64367347729</v>
       </c>
     </row>
@@ -3530,12 +3793,15 @@
         <v>21039.97451174939</v>
       </c>
       <c r="I88" t="n">
+        <v>153166.0488573886</v>
+      </c>
+      <c r="J88" t="n">
         <v>88.32105024324095</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>1503.328551376256</v>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>15148.97263261904</v>
       </c>
     </row>
@@ -3565,12 +3831,15 @@
         <v>18727.41617145969</v>
       </c>
       <c r="I89" t="n">
+        <v>132126.0743456392</v>
+      </c>
+      <c r="J89" t="n">
         <v>90.42451456010487</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>1415.007501133015</v>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>13645.64408124279</v>
       </c>
     </row>
@@ -3600,12 +3869,15 @@
         <v>16592.12343296284</v>
       </c>
       <c r="I90" t="n">
+        <v>113398.6581741795</v>
+      </c>
+      <c r="J90" t="n">
         <v>91.53377466628444</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>1324.58298657291</v>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>12230.63658010978</v>
       </c>
     </row>
@@ -3635,12 +3907,15 @@
         <v>14629.38185281444</v>
       </c>
       <c r="I91" t="n">
+        <v>96806.53474121663</v>
+      </c>
+      <c r="J91" t="n">
         <v>91.59438220248056</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>1233.049211906625</v>
       </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>10906.05359353687</v>
       </c>
     </row>
@@ -3670,12 +3945,15 @@
         <v>12833.66410810726</v>
       </c>
       <c r="I92" t="n">
+        <v>82177.1528884022</v>
+      </c>
+      <c r="J92" t="n">
         <v>90.60890106328998</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>1141.454829704145</v>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>9673.004381630239</v>
       </c>
     </row>
@@ -3705,12 +3983,15 @@
         <v>11198.60681270668</v>
       </c>
       <c r="I93" t="n">
+        <v>69343.48878029495</v>
+      </c>
+      <c r="J93" t="n">
         <v>88.62929275895466</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>1050.845928640855</v>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>8531.549551926095</v>
       </c>
     </row>
@@ -3740,12 +4021,15 @@
         <v>9717.045237423255</v>
       </c>
       <c r="I94" t="n">
+        <v>58144.88196758827</v>
+      </c>
+      <c r="J94" t="n">
         <v>85.81533561318913</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>962.2166358819002</v>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>7480.703623285239</v>
       </c>
     </row>
@@ -3775,12 +4059,15 @@
         <v>8381.096092409689</v>
       </c>
       <c r="I95" t="n">
+        <v>48427.83673016501</v>
+      </c>
+      <c r="J95" t="n">
         <v>82.5594901378381</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>876.4013002687112</v>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>6518.486987403338</v>
       </c>
     </row>
@@ -3810,12 +4097,15 @@
         <v>7182.344942432912</v>
       </c>
       <c r="I96" t="n">
+        <v>40046.74063775533</v>
+      </c>
+      <c r="J96" t="n">
         <v>79.15713105695801</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>793.8418101308731</v>
       </c>
-      <c r="K96" t="n">
+      <c r="L96" t="n">
         <v>5642.085687134627</v>
       </c>
     </row>
@@ -3845,12 +4135,15 @@
         <v>6112.259096054619</v>
       </c>
       <c r="I97" t="n">
+        <v>32864.39569532241</v>
+      </c>
+      <c r="J97" t="n">
         <v>75.75560669830804</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>714.684679073915</v>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>4848.243877003754</v>
       </c>
     </row>
@@ -3880,12 +4173,15 @@
         <v>5162.48752867091</v>
       </c>
       <c r="I98" t="n">
+        <v>26752.13659926779</v>
+      </c>
+      <c r="J98" t="n">
         <v>72.22972939902026</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>638.929072375607</v>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>4133.55919792984</v>
       </c>
     </row>
@@ -3915,12 +4211,15 @@
         <v>4325.001243654114</v>
       </c>
       <c r="I99" t="n">
+        <v>21589.64907059689</v>
+      </c>
+      <c r="J99" t="n">
         <v>68.38842681141553</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>566.6993429765866</v>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>3494.630125554231</v>
       </c>
     </row>
@@ -3950,12 +4249,15 @@
         <v>3591.955698998522</v>
       </c>
       <c r="I100" t="n">
+        <v>17264.64782694277</v>
+      </c>
+      <c r="J100" t="n">
         <v>64.22230491131762</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>498.3109161651713</v>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>2927.930782577645</v>
       </c>
     </row>
@@ -3985,12 +4287,15 @@
         <v>2955.492640564177</v>
       </c>
       <c r="I101" t="n">
+        <v>13672.69212794425</v>
+      </c>
+      <c r="J101" t="n">
         <v>59.74997207877341</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>434.0886112538536</v>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>2429.619866412474</v>
       </c>
     </row>
@@ -4020,12 +4325,15 @@
         <v>2407.73123544247</v>
       </c>
       <c r="I102" t="n">
+        <v>10717.19948738007</v>
+      </c>
+      <c r="J102" t="n">
         <v>55.01503577547457</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>374.3386391750802</v>
       </c>
-      <c r="K102" t="n">
+      <c r="L102" t="n">
         <v>1995.53125515862</v>
       </c>
     </row>
@@ -4055,12 +4363,15 @@
         <v>1940.787548750372</v>
       </c>
       <c r="I103" t="n">
+        <v>8309.4682519376</v>
+      </c>
+      <c r="J103" t="n">
         <v>50.08224594225991</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>319.3236033996056</v>
       </c>
-      <c r="K103" t="n">
+      <c r="L103" t="n">
         <v>1621.19261598354</v>
       </c>
     </row>
@@ -4090,12 +4401,15 @@
         <v>1546.818270398828</v>
       </c>
       <c r="I104" t="n">
+        <v>6368.680703187229</v>
+      </c>
+      <c r="J104" t="n">
         <v>45.03294174388565</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>269.2413574573457</v>
       </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
         <v>1301.869012583934</v>
       </c>
     </row>
@@ -4125,12 +4439,15 @@
         <v>1218.083902541528</v>
       </c>
       <c r="I105" t="n">
+        <v>4821.862432788401</v>
+      </c>
+      <c r="J105" t="n">
         <v>39.95913186589139</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>224.2084157134601</v>
       </c>
-      <c r="K105" t="n">
+      <c r="L105" t="n">
         <v>1032.627655126589</v>
       </c>
     </row>
@@ -4160,12 +4477,15 @@
         <v>947.0261059610856</v>
       </c>
       <c r="I106" t="n">
+        <v>3603.778530246873</v>
+      </c>
+      <c r="J106" t="n">
         <v>34.95763159460613</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>184.2492838475687</v>
       </c>
-      <c r="K106" t="n">
+      <c r="L106" t="n">
         <v>808.4192394131286</v>
       </c>
     </row>
@@ -4195,12 +4515,15 @@
         <v>726.3527411150136</v>
       </c>
       <c r="I107" t="n">
+        <v>2656.752424285788</v>
+      </c>
+      <c r="J107" t="n">
         <v>30.12374911299083</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>149.2916522529626</v>
       </c>
-      <c r="K107" t="n">
+      <c r="L107" t="n">
         <v>624.1699555655599</v>
       </c>
     </row>
@@ -4230,12 +4553,15 @@
         <v>549.1244449730119</v>
       </c>
       <c r="I108" t="n">
+        <v>1930.399683170774</v>
+      </c>
+      <c r="J108" t="n">
         <v>25.5455005578055</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>119.1679031399717</v>
       </c>
-      <c r="K108" t="n">
+      <c r="L108" t="n">
         <v>474.8783033125972</v>
       </c>
     </row>
@@ -4265,12 +4591,15 @@
         <v>408.8363708725396</v>
       </c>
       <c r="I109" t="n">
+        <v>1381.275238197762</v>
+      </c>
+      <c r="J109" t="n">
         <v>21.2984482882238</v>
       </c>
-      <c r="J109" t="n">
+      <c r="K109" t="n">
         <v>93.62240258216626</v>
       </c>
-      <c r="K109" t="n">
+      <c r="L109" t="n">
         <v>355.7104001726255</v>
       </c>
     </row>
@@ -4300,12 +4629,15 @@
         <v>299.4894924875833</v>
       </c>
       <c r="I110" t="n">
+        <v>972.4388673252224</v>
+      </c>
+      <c r="J110" t="n">
         <v>17.44165248035137</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>72.32395429394246</v>
       </c>
-      <c r="K110" t="n">
+      <c r="L110" t="n">
         <v>262.0879975904592</v>
       </c>
     </row>
@@ -4335,12 +4667,15 @@
         <v>215.646711559503</v>
       </c>
       <c r="I111" t="n">
+        <v>672.9493748376391</v>
+      </c>
+      <c r="J111" t="n">
         <v>14.01512682604025</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>54.88230181359108</v>
       </c>
-      <c r="K111" t="n">
+      <c r="L111" t="n">
         <v>189.7640432965168</v>
       </c>
     </row>
@@ -4370,12 +4705,15 @@
         <v>152.4703054551618</v>
       </c>
       <c r="I112" t="n">
+        <v>457.3026632781362</v>
+      </c>
+      <c r="J112" t="n">
         <v>11.03880557493399</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>40.86717498755083</v>
       </c>
-      <c r="K112" t="n">
+      <c r="L112" t="n">
         <v>134.8817414829257</v>
       </c>
     </row>
@@ -4405,12 +4743,15 @@
         <v>105.7388879501047</v>
       </c>
       <c r="I113" t="n">
+        <v>304.8323578229743</v>
+      </c>
+      <c r="J113" t="n">
         <v>8.513088550208712</v>
       </c>
-      <c r="J113" t="n">
+      <c r="K113" t="n">
         <v>29.82836941261684</v>
       </c>
-      <c r="K113" t="n">
+      <c r="L113" t="n">
         <v>94.01456649537491</v>
       </c>
     </row>
@@ -4440,12 +4781,15 @@
         <v>71.84363823171461</v>
       </c>
       <c r="I114" t="n">
+        <v>199.0934698728696</v>
+      </c>
+      <c r="J114" t="n">
         <v>6.420848604267088</v>
       </c>
-      <c r="J114" t="n">
+      <c r="K114" t="n">
         <v>21.31528086240813</v>
       </c>
-      <c r="K114" t="n">
+      <c r="L114" t="n">
         <v>64.18619708275807</v>
       </c>
     </row>
@@ -4475,12 +4819,15 @@
         <v>47.76514051424053</v>
       </c>
       <c r="I115" t="n">
+        <v>127.249831641155</v>
+      </c>
+      <c r="J115" t="n">
         <v>4.730536125068467</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>14.89443225814104</v>
       </c>
-      <c r="K115" t="n">
+      <c r="L115" t="n">
         <v>42.87091622034993</v>
       </c>
     </row>
@@ -4510,12 +4857,15 @@
         <v>31.03358746709023</v>
       </c>
       <c r="I116" t="n">
+        <v>79.48469112691447</v>
+      </c>
+      <c r="J116" t="n">
         <v>3.400019212502634</v>
       </c>
-      <c r="J116" t="n">
+      <c r="K116" t="n">
         <v>10.16389613307258</v>
       </c>
-      <c r="K116" t="n">
+      <c r="L116" t="n">
         <v>27.9764839622089</v>
       </c>
     </row>
@@ -4545,12 +4895,15 @@
         <v>19.67609181605264</v>
       </c>
       <c r="I117" t="n">
+        <v>48.45110365982423</v>
+      </c>
+      <c r="J117" t="n">
         <v>2.380731801587935</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>6.763876920569939</v>
       </c>
-      <c r="K117" t="n">
+      <c r="L117" t="n">
         <v>17.81258782913632</v>
       </c>
     </row>
@@ -4580,12 +4933,15 @@
         <v>12.15544213332683</v>
       </c>
       <c r="I118" t="n">
+        <v>28.77501184377159</v>
+      </c>
+      <c r="J118" t="n">
         <v>1.621667764414606</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>4.383145118982005</v>
       </c>
-      <c r="K118" t="n">
+      <c r="L118" t="n">
         <v>11.04871090856638</v>
       </c>
     </row>
@@ -4615,12 +4971,15 @@
         <v>7.304780009216866</v>
       </c>
       <c r="I119" t="n">
+        <v>16.61956971044477</v>
+      </c>
+      <c r="J119" t="n">
         <v>1.072889688479115</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>2.761477354567399</v>
       </c>
-      <c r="K119" t="n">
+      <c r="L119" t="n">
         <v>6.665565789584375</v>
       </c>
     </row>
@@ -4650,12 +5009,15 @@
         <v>4.262349577371896</v>
       </c>
       <c r="I120" t="n">
+        <v>9.314789701227898</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.6882672429132476</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>1.688587666088284</v>
       </c>
-      <c r="K120" t="n">
+      <c r="L120" t="n">
         <v>3.904088435016976</v>
       </c>
     </row>
@@ -4685,12 +5047,15 @@
         <v>2.409825389077001</v>
       </c>
       <c r="I121" t="n">
+        <v>5.052440123856003</v>
+      </c>
+      <c r="J121" t="n">
         <v>0.4273439121561094</v>
       </c>
-      <c r="J121" t="n">
+      <c r="K121" t="n">
         <v>1.000320423175036</v>
       </c>
-      <c r="K121" t="n">
+      <c r="L121" t="n">
         <v>2.215500768928693</v>
       </c>
     </row>
@@ -4720,12 +5085,15 @@
         <v>1.316819374014388</v>
       </c>
       <c r="I122" t="n">
+        <v>2.642614734779003</v>
+      </c>
+      <c r="J122" t="n">
         <v>0.2563061633647457</v>
       </c>
-      <c r="J122" t="n">
+      <c r="K122" t="n">
         <v>0.5729765110189268</v>
       </c>
-      <c r="K122" t="n">
+      <c r="L122" t="n">
         <v>1.215180345753656</v>
       </c>
     </row>
@@ -4755,12 +5123,15 @@
         <v>0.6931959639949072</v>
       </c>
       <c r="I123" t="n">
+        <v>1.325795360764614</v>
+      </c>
+      <c r="J123" t="n">
         <v>0.1481729295792579</v>
       </c>
-      <c r="J123" t="n">
+      <c r="K123" t="n">
         <v>0.3166703476541812</v>
       </c>
-      <c r="K123" t="n">
+      <c r="L123" t="n">
         <v>0.6422038347347298</v>
       </c>
     </row>
@@ -4790,12 +5161,15 @@
         <v>0.3498642331101527</v>
       </c>
       <c r="I124" t="n">
+        <v>0.6325993967697071</v>
+      </c>
+      <c r="J124" t="n">
         <v>0.082373359975167</v>
       </c>
-      <c r="J124" t="n">
+      <c r="K124" t="n">
         <v>0.1684974180749232</v>
       </c>
-      <c r="K124" t="n">
+      <c r="L124" t="n">
         <v>0.3255334870805485</v>
       </c>
     </row>
@@ -4825,12 +5199,15 @@
         <v>0.1679104983771467</v>
       </c>
       <c r="I125" t="n">
+        <v>0.2827351636595544</v>
+      </c>
+      <c r="J125" t="n">
         <v>0.04392301253611639</v>
       </c>
-      <c r="J125" t="n">
+      <c r="K125" t="n">
         <v>0.08612405809975622</v>
       </c>
-      <c r="K125" t="n">
+      <c r="L125" t="n">
         <v>0.1570360690056253</v>
       </c>
     </row>
@@ -4860,12 +5237,15 @@
         <v>0.0753283441859617</v>
       </c>
       <c r="I126" t="n">
+        <v>0.1148246652824078</v>
+      </c>
+      <c r="J126" t="n">
         <v>0.02239995183802273</v>
       </c>
-      <c r="J126" t="n">
+      <c r="K126" t="n">
         <v>0.04220104556363984</v>
       </c>
-      <c r="K126" t="n">
+      <c r="L126" t="n">
         <v>0.07091201090586909</v>
       </c>
     </row>
@@ -4895,12 +5275,15 @@
         <v>0.03023005461516948</v>
       </c>
       <c r="I127" t="n">
+        <v>0.03949632109644609</v>
+      </c>
+      <c r="J127" t="n">
         <v>0.01089122210900498</v>
       </c>
-      <c r="J127" t="n">
+      <c r="K127" t="n">
         <v>0.01980109372561711</v>
       </c>
-      <c r="K127" t="n">
+      <c r="L127" t="n">
         <v>0.02871096534222924</v>
       </c>
     </row>
@@ -4930,12 +5313,15 @@
         <v>0.009266266481276613</v>
       </c>
       <c r="I128" t="n">
-        <v>0.008909871616612127</v>
+        <v>0.009266266481276613</v>
       </c>
       <c r="J128" t="n">
         <v>0.008909871616612127</v>
       </c>
       <c r="K128" t="n">
+        <v>0.008909871616612127</v>
+      </c>
+      <c r="L128" t="n">
         <v>0.008909871616612127</v>
       </c>
     </row>

--- a/exercisesLifeContingencies/survivalModels/lifeTables3/GRF_95_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/lifeTables3/GRF_95_comm.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/exercisesLifeContingencies/survivalModels/lifeTables3/GRF_95_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/lifeTables3/GRF_95_comm.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GRF_95" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GRF_95" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>lx</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>qx</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>exo</t>
+  </si>
+  <si>
+    <t>Dx</t>
+  </si>
+  <si>
+    <t>Nx</t>
+  </si>
+  <si>
+    <t>Sx</t>
+  </si>
+  <si>
+    <t>Cx</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,4911 +406,4883 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>lx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>dx</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>qx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>px</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>exo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Dx</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Nx</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Sx</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Cx</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Mx</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>100000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>89.30480517450458</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>100000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2502142.85950827</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>57679546.2830834</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>3763.736172758637</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>283698.7716973641</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:12">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>100000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>88.30480517450458</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>96153.84615384614</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2402142.85950827</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>55177403.42357513</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>3763.736172758637</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>279935.0355246054</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:12">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>100000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>87.30480517450459</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>92455.62130177513</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>2305989.013354423</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>52775260.56406686</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>3763.736172758637</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>276171.2993518469</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:12">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>100000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>86.30480517450458</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>88899.63586709146</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>2213533.392052649</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>50469271.55071245</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>3763.736172758638</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>272407.5631790882</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:12">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>100000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>85.30480517450458</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>85480.41910297255</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>2124633.756185557</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>48255738.15865979</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>3763.736172758637</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>268643.8270063295</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:12">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>100000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>84.30480517450457</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>82192.71067593514</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>2039153.337082585</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>46131104.40247424</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>3763.736172758638</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>264880.0908335709</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>100000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>83.30480517450458</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>79031.45257301455</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1956960.626406649</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>44091951.06539165</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>3763.736172758637</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>261116.3546608123</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:12">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>100000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>82.30480517450455</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>75991.7813202063</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>1877929.173833635</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>42134990.43898501</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>3763.736172758638</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>257352.6184880536</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:12">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>100000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>81.30480517450455</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>73069.02050019836</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>1801937.392513428</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>40257061.26515137</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>3763.736172758637</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>253588.882315295</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:12">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>100000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>80.30480517450455</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>70258.67355788303</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1728868.37201323</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>38455123.87263793</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>3763.736172758637</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>249825.1461425364</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:12">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>100000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>79.30480517450455</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>67556.41688257983</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1658609.698455347</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>36726255.50062471</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>3763.736172758637</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>246061.4099697777</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:12">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>100000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>78.30480517450455</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>64958.09315632674</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>1591053.281572767</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>35067645.80216937</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>3763.736172758638</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>242297.6737970191</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:12">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>100000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>77.30480517450455</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>62459.70495800649</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>1526095.188416441</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>33476592.5205966</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>3763.736172758637</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>238533.9376242605</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:12">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>100000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>76.30480517450455</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>60057.40861346776</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>1463635.483458434</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>31950497.33218016</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>3763.736172758638</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>234770.2014515018</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:12">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>100000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>75.30480517450455</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>57747.50828218054</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>1403578.074844966</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>30486861.84872173</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>3763.736172758637</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>231006.4652787432</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>100000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>31.79</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.0003179</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.9996821</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>74.30480517450454</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>55526.45027132744</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>1345830.566562786</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>29083283.77387676</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>16.97294090505288</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>3763.736172758638</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>227242.7291059846</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>99968.21000000001</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>31.979830379</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.0003199</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.9996801</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>73.32827518318526</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>53373.84462767902</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>1290304.116291458</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>27737453.20731397</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>16.41758932345627</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>3746.763231853584</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>223478.9929332259</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>99936.23016962101</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>32.16947249160101</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.0003219</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.9996781</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>72.35158040375643</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>51304.58686036791</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>1236930.271663779</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>26447149.09102252</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>15.87975625995426</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>3730.345642530128</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>219732.2297013723</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>99904.0606971294</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>32.35892525980022</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.0003239</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.9996761</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>71.37471687511851</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>49315.45376332456</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>1185625.684803411</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>25210218.81935874</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>15.3589187249431</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>3714.465886270174</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>216001.8840588422</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:12">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>99871.7017718696</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>32.54818760745231</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.0003259</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.9996741</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>70.39768063387584</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>47403.34662293329</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>1136310.231040087</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>24024593.13455533</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>14.85456794655188</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>3699.106967545231</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>212287.418172572</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:12">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>99839.15358426215</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>32.80714586778854</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.0003286</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.9996714</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>69.42046771430392</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>45565.28641564315</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>1088906.884417153</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>22888282.90351524</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>14.39687799632724</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>3684.252399598679</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>208588.3112050268</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:12">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>99806.34643839436</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>34.17369302050623</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.0003424</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.9996576</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>68.44312242433257</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>43798.37852166054</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>1043341.59800151</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>21799376.01909809</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>14.4197738517467</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>3669.855521602351</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>204904.0588054281</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:12">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>99772.17274537386</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>36.55652409390498</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.0003664</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.9996336</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>67.46639411767846</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>42099.40572774492</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>999543.2194798499</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>20756034.42109658</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>14.83194447946706</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>3655.435747750605</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>201234.2032838258</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:12">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>99735.61622127995</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>39.42548909227197</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.0003953</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>0.9996047</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>66.49093959794715</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>40465.36587065987</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>957443.813752105</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>19756491.20161673</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>15.38072993141524</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>3640.603803271138</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>197578.7675360751</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:12">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>99696.19073218768</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>42.34097220396011</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.0004247</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>0.9995753000000001</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>65.51703613233025</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>38893.62491493385</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>916978.4478814452</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>18799047.38786462</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>15.88281009747346</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>3625.223073339722</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>193938.163732804</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:12">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>99653.84975998373</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>45.25281317600861</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.0004541</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>0.9995459</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>64.54466059968694</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>37381.833454262</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>878084.8229665112</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>17882068.93998318</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>16.32220247267343</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>3609.340263242249</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>190312.9406594643</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:12">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>99608.59694680772</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>48.20060006256026</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.0004839</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>0.9995161</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>63.57375649251018</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>35927.7484266254</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>840702.9895122492</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>17003984.11701667</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>16.71676679196541</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>3593.018060769576</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>186703.600396222</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:12">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>99560.39634674517</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>51.20391184113104</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.0005143</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>0.9994857</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>62.60429265972822</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>34529.1951818863</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>804775.2410856239</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>16163281.12750442</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>17.07535104042704</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>3576.301293977611</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>183110.5823354525</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:12">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>99509.19243490403</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>54.29221539248365</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.0005456</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>0.9994544</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>61.63624933276007</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>33184.07386231178</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>770246.0459037375</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>15358505.8864188</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>17.40887567238202</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>3559.225942937183</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>179534.2810414748</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:12">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>99454.90021951155</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>57.51476879694353</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.0005783</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>0.9994217</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>60.66962347933038</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>31890.35445347355</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>737061.9720414258</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>14588259.84051506</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>17.73287690427284</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>3541.817067264801</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>175975.0550985377</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:12">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>99397.3854507146</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>60.87095885001762</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.0006124</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>0.9993876</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>59.70443970681284</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>30646.06948220491</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>705171.6175879521</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>13851197.86847363</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>18.04582014509835</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>3524.084190360529</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>172433.2380312729</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:12">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>99336.51449186458</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>64.41972964797418</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.0006485</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>0.9993514999999999</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>58.74071872295878</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>29449.32868197501</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>674525.5481057472</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>13146026.25088568</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>18.36335543294307</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>3506.03837021543</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>168909.1538409123</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:12">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>99272.0947622166</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>68.17014747321414</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.0006867</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.9993133</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>57.77851233821013</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>28298.29883877379</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>645076.2194237724</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>12471500.70277993</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>18.68504020440958</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>3487.675014782487</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>165403.1154706969</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:12">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>99203.92461474337</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>72.16093476476433</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.0007274</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>0.9992726</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>56.81787252127049</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>27191.21768938577</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>616777.9205849987</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>11826424.48335616</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>19.01816514159539</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>3468.989974578078</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>161915.4404559144</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:12">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>99131.7636799786</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>76.42067662089551</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.0007709</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.9992291</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>55.85886796182592</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>26126.38345926779</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>589586.7028956128</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>11209646.56277116</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>19.36618173918225</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>3449.971809436482</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>158446.4504813363</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:12">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>99055.3430033577</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>80.96783737094459</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.0008174</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>0.9991826</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>54.90157703756418</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>25102.15637524907</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>563460.319436345</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>10620059.85987555</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>19.72932944339288</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>3430.6056276973</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>154996.4786718999</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:12">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>98974.37516598676</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>85.82068070642711</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.0008671</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>0.9991329</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>53.94608126438969</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>24116.95949291148</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>538358.1630610959</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>10056599.54043921</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>20.10751497721495</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>3410.876298253907</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>151565.8730442026</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:12">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>98888.55448528033</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>90.89835928286968</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.0009192</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>0.9990808</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>52.9924645804274</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>23169.27661282229</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>514241.2035681843</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>9518241.37737811</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>20.47807602164062</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>3390.768783276692</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>148154.9967459487</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:12">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>98797.65612599746</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>96.13011941059553</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.000973</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>0.999027</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>52.04076004706265</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>22257.67251323055</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>491071.9269553621</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>9004000.173809925</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>20.82376476478205</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>3370.290707255052</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>144764.227962672</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:12">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>98701.52600658686</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>101.4355582769693</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.0010277</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>0.9989723</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>51.09095804924456</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>21380.78442103383</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>468814.2544421316</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>8512928.246854562</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>21.12791552836199</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>3349.46694249027</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>141393.9372554169</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:12">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>98600.0904483099</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>106.705017883161</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.0010822</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>0.9989178</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>50.14300386431592</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>20537.31864315801</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>447433.4700210976</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>8044113.992412432</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>21.37065984194769</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>3328.339026961907</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>138044.4703129266</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:12">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>98493.38543042673</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>111.8884858489648</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.001136</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>0.998864</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>49.19678572582842</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>19726.05111242537</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>426896.1513779396</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>7596680.522391333</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>21.54691736895694</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>3306.96836711996</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>134716.1312859647</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:12">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>98381.49694457777</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>116.8772183701584</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.001188</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>0.998812</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>48.25216818889098</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>18945.80992150159</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>407170.1002655143</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>7169784.371013395</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>21.64194441033066</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>3285.421449751002</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>131409.1629188448</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:12">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>98264.61972620762</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>121.6909050689355</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.0012384</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>0.9987616</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>47.30896523959562</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>18195.48298011042</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>388224.2903440127</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>6762614.270747879</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>21.66662127170072</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>3263.779505340673</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>128123.7414690938</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:12">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>98142.92882113869</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>126.6436353507974</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.0012904</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>0.9987096</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>46.36700533900743</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>17473.99009037294</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>370028.8073639023</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>6374389.980403867</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>21.68118924290119</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>3242.112884068971</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>124859.9619637531</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:12">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>98016.28518578788</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>132.1651589445164</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.0013484</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>0.9986516</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>45.42626859600373</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>16780.23235919261</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>352554.8172735294</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>6004361.173039963</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>21.7562166472455</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>3220.43169482607</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>121617.8490796841</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:12">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>97884.12002684336</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>138.6332791940182</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.0014163</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>0.9985837</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>44.48692897102826</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>16113.08259026873</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>335774.5849143368</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>5651806.355766434</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>21.94322968518999</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>3198.675478178825</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>118397.4173848581</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:12">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>97745.48674764934</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>145.7971680327938</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.0014916</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>0.9985084</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>43.54931601730357</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>15471.40541480397</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>319661.502324068</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>5316031.770852097</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>22.18956568915538</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>3176.732248493635</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>115198.7419066792</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:12">
+      <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>97599.68957961653</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>153.2119927020821</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.0015698</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>0.9984302</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>42.61362429930846</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>14854.16179469927</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>304190.096909264</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>4996370.268528031</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>22.42121460126819</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>3154.542682804479</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>112022.0096581856</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:12">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>97446.47758691445</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>161.0400488601348</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>0.0016526</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>0.9983474</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>41.67983820932946</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>14260.42666491726</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>289335.9351145647</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>4692180.171618767</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>22.66036644850218</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>3132.121468203211</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>108867.4669753811</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:12">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>97285.43753805432</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>169.4420465600292</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>0.0017417</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>0.9982583</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>40.7480046618336</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>13689.2883498181</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>275075.5084496475</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>4402844.236504202</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>22.92560915276748</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>3109.461101754709</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>105735.3455071779</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:12">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>97115.99549149429</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>178.5671809102106</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>0.0018387</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.9981613</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>39.81822691765608</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>13139.85165028771</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>261386.2200998294</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>4127768.728054554</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>23.23100502825386</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>3086.535492601942</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>102625.8844054232</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:12">
+      <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>96937.42831058409</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>188.5723792925792</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.0019453</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>0.9980547</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>38.89065451411118</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>12611.24173563301</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>248246.3684495417</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>3866382.507954725</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>23.589085142622</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>3063.304487573688</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>99539.34891282127</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:12">
+      <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>96748.8559312915</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>199.6219144430338</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.0020633</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>0.9979367</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>37.96548141510799</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>12102.60489142757</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>235635.1267139087</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>3618136.139505182</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>24.01086987738703</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>3039.715402431066</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>96476.04442524757</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:12">
+      <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>96549.23401684847</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>211.8386743563672</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>0.0021941</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>0.9978059</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>37.04294377099068</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>11613.10921803374</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>223532.5218224811</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>3382501.012791274</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>24.50031051469983</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>3015.704532553679</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>93436.3290228165</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:12">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>96337.39534249211</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>225.3909701432945</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>0.0023396</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>0.9976604</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>36.12329895121954</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>11141.95086067159</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>211919.4126044474</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>3158968.490968792</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>25.06510407079542</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>2991.204222038979</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>90420.62449026282</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:12">
+      <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>96112.00437234881</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>240.4145677369933</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.0025014</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>0.9974986</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>35.20683867097415</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>10688.3491850365</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>200777.4617437758</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>2947049.078364345</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>25.70753524177913</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>2966.139117968183</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>87429.42026822384</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:12">
+      <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>95871.58980461181</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>257.0413194251447</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.0026811</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>0.9973189</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>34.29387206255142</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>10251.55129652408</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>190089.1125587393</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>2746271.61662057</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>26.42830209722184</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>2940.431582726404</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>84463.28115025567</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:12">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>95614.54848518666</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>275.4177069115802</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>0.0028805</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>0.9971195</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>33.38472038637934</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>9830.832559945165</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>179837.5612622152</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>2556182.50406183</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>27.2285703739635</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>2914.003280629182</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>81522.84956752925</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:12">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>95339.1307782751</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>295.6657123695867</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>0.0031012</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>0.9968988</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>32.47971846541897</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>9425.495044957926</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>170006.72870227</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>2376344.942799615</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>28.10610118598415</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>2886.774710255219</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>78608.84628690008</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:12">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>95043.4650659055</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>317.9013819524408</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>0.0033448</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>0.9966552</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>31.5792024881753</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>9034.869903581251</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>160581.2336573121</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>2206338.214097345</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>29.05753158990247</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>2858.668609069235</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>75722.07157664486</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:12">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>94725.56368395306</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>340.197389414549</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>0.0035914</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>0.9964086</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>30.68350507595335</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>8658.317375699762</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>151546.3637537309</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>2045756.980440033</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>29.89950098373858</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>2829.611077479332</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>72863.40296757563</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:12">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>94385.36629453851</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>362.6002616937286</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>0.0038417</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>0.9961583000000001</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>29.79229683079146</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>8295.405667958339</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>142888.0463780311</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>1894210.616686302</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>30.64274995634188</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>2799.711576495594</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64">
         <v>70033.79189009628</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:12">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>94022.7660328448</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>387.9755417579307</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>0.0041264</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>0.9958736</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>28.90526302977294</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>7945.708853849755</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>134592.6407100728</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>1751322.57030827</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>31.52612789858232</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>2769.068826539252</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L65">
         <v>67234.08031360069</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:12">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>93634.79049108687</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>418.8752352618771</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.0044735</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>0.9955265</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>28.02296017262927</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>7608.578539264642</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>126646.931856223</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>1616729.929598198</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>32.72786163019266</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>2737.542698640669</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66">
         <v>64465.01148706145</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:12">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>93215.91525582499</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>457.5596416247425</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>0.0049086</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>0.9950914</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>27.14663740506081</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>7283.213041508885</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>119038.3533169584</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>1490082.997741975</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>34.37536493802934</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>2704.814837010477</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67">
         <v>61727.46878842078</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:12">
+      <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>92758.35561420025</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>505.3846247284087</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>0.0054484</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>0.9945516</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>26.27808028997217</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>6968.714098051284</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>111755.1402754495</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>1371044.644425016</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>36.50802104982943</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>2670.439472072447</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68">
         <v>59022.6539514103</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:12">
+      <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>92252.97098947184</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>561.1471466376604</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>0.0060827</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>0.9939173</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>25.41929899863634</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>6664.178611691788</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>104786.4261773982</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>1259289.504149567</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>38.97711465513235</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>2633.931451022618</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69">
         <v>56352.21447933785</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:12">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>91691.82384283419</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>623.0826197415954</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>0.0067954</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>0.9932046</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>24.57180325630345</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>6368.886935048511</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>98122.24756570644</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>1154503.077972169</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>41.61455219079676</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>2594.954336367486</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70">
         <v>53718.28302831524</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:12">
+      <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>91068.74122309258</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>689.5634016671347</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>0.0075719</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>0.9924281</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>23.73649996818729</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>6082.315193048154</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>91753.36063065792</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>1056380.830406462</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>44.28334847138589</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>2553.339784176689</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71">
         <v>51123.32869194775</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:12">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>90379.17782142546</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>759.0404870154596</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>0.0083984</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>0.9916016</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>22.91378682061429</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>5804.096644844148</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>85671.04543760976</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>964627.4697758043</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>46.87031275197988</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>2509.056435705303</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72">
         <v>48569.98890777106</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:12">
+      <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>89620.13733441</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>830.0527499775719</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>0.0092619</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>0.9907381</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>22.1036210718239</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>5533.991845752007</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>79866.94879276562</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>878956.4243381945</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>49.28392218862549</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>2462.186122953323</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L73">
         <v>46060.93247206575</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:12">
+      <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>88790.08458443242</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>901.2815115911982</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.0101507</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>0.9898493</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>21.30558219354227</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>5271.86208334215</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>74332.95694701359</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>799089.4755454288</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>51.45489466286649</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>2412.902200764698</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74">
         <v>43598.74634911242</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:12">
+      <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>87888.80307284123</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>971.5052514065724</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.0110538</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>0.9889462</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>20.51893913906113</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>5017.643262396893</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>69061.09486367145</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>724756.5185984152</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>53.33079335950266</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>2361.447306101831</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L75">
         <v>41185.84414834774</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:12">
+      <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>86917.29782143465</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>1039.61779924218</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>0.011961</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>0.988039</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>19.74269787280758</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>4771.326189714432</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>64043.45160127456</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>655695.4237347438</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>54.87483899535992</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>2308.116512742328</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L76">
         <v>38824.39684224591</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:12">
+      <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>85877.68002219248</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>1105.91558778979</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>0.0128778</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>0.9871221999999999</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>18.97564607551683</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>4532.938804960824</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>59272.12541156013</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>591651.9721334693</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>56.12911475242741</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>2253.241673746968</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L77">
         <v>36516.28032950358</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:12">
+      <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>84771.76443440268</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>1175.62330635274</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>0.0138681</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>0.9861319</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>18.21667568160946</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>4302.465890017595</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>54739.18660659931</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>532379.8467219092</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>57.37214154745482</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>2197.112558994541</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L78">
         <v>34263.03865575661</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:12">
+      <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>83596.14112804993</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>1254.284861099374</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>0.0150041</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>0.9849959</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>17.46582757500235</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>4079.614291161771</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>50436.72071658172</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>477640.66011531</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>58.85667383271185</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>2139.740417447086</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L79">
         <v>32065.92609676206</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:12">
+      <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>82341.85626695056</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>1346.454033677175</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>0.016352</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>0.983648</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>16.72426212637266</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>3863.849375361298</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>46357.10642541994</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>427203.9393987282</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>60.75160094798841</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>2080.883743614374</v>
       </c>
-      <c r="L80" t="n">
+      <c r="L80">
         <v>29926.18567931498</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:12">
+      <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>80995.40223327339</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>1455.616970775496</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>0.0179716</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>0.9820284</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>15.99397154914427</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>3654.48818305326</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>42493.25705005864</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>380846.8329733083</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>63.15096137553843</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>2020.132142666386</v>
       </c>
-      <c r="L81" t="n">
+      <c r="L81">
         <v>27845.30193570061</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:12">
+      <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>79539.7852624979</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>1584.201857051697</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>0.0199171</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>0.9800829</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>15.27751880612034</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>3450.779983867981</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>38838.76886700538</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>338353.5759232497</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>66.0860865545163</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>1956.981181290848</v>
       </c>
-      <c r="L82" t="n">
+      <c r="L82">
         <v>25825.16979303421</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:12">
+      <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>77955.5834054462</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>1733.513899303588</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>0.0222372</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>0.9777628</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>14.57782536163046</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>3251.971590241619</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>35387.9888831374</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>299514.8070562443</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>69.53340639088549</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>1890.895094736331</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L83">
         <v>23868.18861174336</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:12">
+      <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>76222.06950614262</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>1903.684296950665</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>0.0249755</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>0.9750245</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>13.89799648915919</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>3057.362353456825</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>32136.01729289579</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>264126.8181731069</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>73.42226294111627</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>1821.361688345446</v>
       </c>
-      <c r="L84" t="n">
+      <c r="L84">
         <v>21977.29351700703</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:12">
+      <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>74318.38520919195</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>2092.233475924735</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>0.0281523</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>0.9718477</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>13.24118956924589</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>2866.349230767369</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>29078.65493943896</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>231990.800880211</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>77.59069562435786</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>1747.93942540433</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L85">
         <v>20155.93182866159</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:12">
+      <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>72226.15173326722</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>2290.536840377797</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>0.0317134</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>0.9682866</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>12.61027393412146</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>2678.51433395965</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>26212.30570867159</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>202912.1459407721</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>81.67768892172691</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>1670.348729779972</v>
       </c>
-      <c r="L86" t="n">
+      <c r="L86">
         <v>18407.99240325726</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:12">
+      <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>69935.61489288943</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>2489.043501845381</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>0.0355905</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>0.9644095</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>12.00691059250583</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>2493.816862962552</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>23533.79137471194</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>176699.8402321005</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>85.34248948198913</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>1588.671040858245</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L87">
         <v>16737.64367347729</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:12">
+      <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>67446.57139104405</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2678.950837023714</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>0.0397196</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>0.9602804</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>11.4315608074224</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>2312.558340289695</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>21039.97451174939</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>153166.0488573886</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>88.32105024324095</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>1503.328551376256</v>
       </c>
-      <c r="L88" t="n">
+      <c r="L88">
         <v>15148.97263261904</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:12">
+      <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>64767.62055402034</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2852.463160629887</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>0.0440415</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>0.9559585</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>10.88371751357457</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>2135.292738496851</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>18727.41617145969</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>132126.0743456392</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>90.42451456010487</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>1415.007501133015</v>
       </c>
-      <c r="L89" t="n">
+      <c r="L89">
         <v>13645.64408124279</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:12">
+      <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>61915.15739339046</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>3002.95324025257</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>0.0485011</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>0.9514989</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>10.36210072254661</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>1962.741580148406</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>16592.12343296284</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>113398.6581741795</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>91.53377466628444</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>1324.58298657291</v>
       </c>
-      <c r="L90" t="n">
+      <c r="L90">
         <v>12230.63658010978</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:12">
+      <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>58912.20415313789</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>3125.139258593167</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>0.0530474</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>0.9469526</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>9.864805174810616</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>1795.717744707182</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>14629.38185281444</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>96806.53474121663</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>91.59438220248056</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>1233.049211906625</v>
       </c>
-      <c r="L91" t="n">
+      <c r="L91">
         <v>10906.05359353687</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:12">
+      <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>55787.06489454472</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>3215.175911067296</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>0.057633</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>0.942367</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>9.389412812014688</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>1635.057295400579</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>12833.66410810726</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>82177.1528884022</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>90.60890106328998</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>1141.454829704145</v>
       </c>
-      <c r="L92" t="n">
+      <c r="L92">
         <v>9673.004381630239</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:12">
+      <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>52571.88898347742</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>3270.728529973658</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>0.0622144</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>0.9377856</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>8.933068870211594</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>1481.561575283421</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>11198.60681270668</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>69343.48878029495</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>88.62929275895466</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>1050.845928640855</v>
       </c>
-      <c r="L93" t="n">
+      <c r="L93">
         <v>8531.549551926095</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:12">
+      <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>49301.16045350376</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>3293.559093980274</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>0.0668049</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>0.9331951000000001</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>8.492533976008584</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>1335.949145013565</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>9717.045237423255</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>58144.88196758827</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>85.81533561318913</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>962.2166358819002</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L94">
         <v>7480.703623285239</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:12">
+      <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>46007.60135952349</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>3295.345055737365</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>0.0716261</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>0.9283739</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>8.064697752922815</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>1198.751149976777</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>8381.096092409689</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>48427.83673016501</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>82.5594901378381</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>876.4013002687112</v>
       </c>
-      <c r="L95" t="n">
+      <c r="L95">
         <v>6518.486987403338</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:12">
+      <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>42712.25630378613</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>3285.922217060353</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>0.0769316</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>0.9230684</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>7.648330918095409</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>1070.085846378294</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>7182.344942432912</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>40046.74063775533</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>79.15713105695801</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>793.8418101308731</v>
       </c>
-      <c r="L96" t="n">
+      <c r="L96">
         <v>5642.085687134627</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:12">
+      <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>39426.33408672577</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>3270.509035695711</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>0.0829524</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>0.9170476</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>7.244096665095901</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>949.7715673837088</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>6112.259096054619</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>32864.39569532241</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>75.75560669830804</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>714.684679073915</v>
       </c>
-      <c r="L97" t="n">
+      <c r="L97">
         <v>4848.243877003754</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:12">
+      <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>36155.82505103006</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>3243.022037029677</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>0.0896957</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>0.9103043</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>6.854140248658737</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>837.4862850167964</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>5162.48752867091</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>26752.13659926779</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>72.22972939902026</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>638.929072375607</v>
       </c>
-      <c r="L98" t="n">
+      <c r="L98">
         <v>4133.55919792984</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:12">
+      <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>32912.80301400038</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>3193.37458627429</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>0.09702529999999999</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>0.9029747</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>6.480237541071419</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>733.0455446555916</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>4325.001243654114</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>21589.64907059689</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>68.38842681141553</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>566.6993429765866</v>
       </c>
-      <c r="L99" t="n">
+      <c r="L99">
         <v>3494.630125554231</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:12">
+      <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>29719.42842772608</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>3118.792482519689</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>0.1049412</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>0.8950588</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>6.122818492114362</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>636.4630584343455</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>3591.955698998522</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>17264.64782694277</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>64.22230491131762</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>498.3109161651713</v>
       </c>
-      <c r="L100" t="n">
+      <c r="L100">
         <v>2927.930782577645</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:12">
+      <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>26600.6359452064</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>3017.669243850022</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>0.1134435</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>0.8865565</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>5.782066040928665</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>547.7614051217068</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>2955.492640564177</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>13672.69212794425</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>59.74997207877341</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>434.0886112538536</v>
       </c>
-      <c r="L101" t="n">
+      <c r="L101">
         <v>2429.619866412474</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:12">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>23582.96670135638</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>2889.67279244394</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>0.1225322</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>0.8774678</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>5.457957604426414</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>466.9436866920985</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>2407.73123544247</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>10717.19948738007</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>55.01503577547457</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>374.3386391750802</v>
       </c>
-      <c r="L102" t="n">
+      <c r="L102">
         <v>1995.53125515862</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:12">
+      <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>20693.29390891244</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>2735.800377144978</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>0.1322071</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>0.8677929</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>5.15030147479647</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>393.9692783515433</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>1940.787548750372</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>8309.4682519376</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>50.08224594225991</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>319.3236033996056</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L103">
         <v>1621.19261598354</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:12">
+      <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>17957.49353176746</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>2558.375371481259</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>0.1424684</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>0.8575315999999999</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>4.858768750927174</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>328.7343678573008</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>1546.818270398828</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>6368.680703187229</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>45.03294174388565</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>269.2413574573457</v>
       </c>
-      <c r="L104" t="n">
+      <c r="L104">
         <v>1301.869012583934</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:12">
+      <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>15399.1181602862</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>2360.931199862439</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>0.153316</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>0.846684</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>4.58292493352685</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>271.0577965804421</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>1218.083902541528</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>4821.862432788401</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>39.95913186589139</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>224.2084157134601</v>
       </c>
-      <c r="L105" t="n">
+      <c r="L105">
         <v>1032.627655126589</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:12">
+      <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>13038.18696042376</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>2148.041301729815</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>0.16475</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>0.83525</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>4.322253560391894</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>220.673364846072</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>947.0261059610856</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>3603.778530246873</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>34.95763159460613</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>184.2492838475687</v>
       </c>
-      <c r="L106" t="n">
+      <c r="L106">
         <v>808.4192394131286</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:12">
+      <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>10890.14565869395</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>1925.054315131026</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>0.1767703</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>0.8232297</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>4.076179060630822</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>177.2282961420016</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>726.3527411150136</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>2656.752424285788</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>30.12374911299083</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>149.2916522529626</v>
       </c>
-      <c r="L107" t="n">
+      <c r="L107">
         <v>624.1699555655599</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:12">
+      <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>8965.091343562919</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>1697.78120686078</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>0.1893769</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>0.8106231</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>3.844084112406079</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>140.2880741004722</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>549.1244449730119</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>1930.399683170774</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>25.5455005578055</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>119.1679031399717</v>
       </c>
-      <c r="L108" t="n">
+      <c r="L108">
         <v>474.8783033125972</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:12">
+      <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>7267.310136702139</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>1472.138287660739</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>0.2025699</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>0.7974301</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>3.625325459397935</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>109.3468783849563</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>408.8363708725396</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>1381.275238197762</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>21.2984482882238</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>93.62240258216626</v>
       </c>
-      <c r="L109" t="n">
+      <c r="L109">
         <v>355.7104001726255</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:12">
+      <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>5795.1718490414</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>1253.780793402628</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>0.2163492</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>0.7836508</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>3.419246915056172</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>83.8427809280803</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>299.4894924875833</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>972.4388673252224</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>17.44165248035137</v>
       </c>
-      <c r="K110" t="n">
+      <c r="K110">
         <v>72.32395429394246</v>
       </c>
-      <c r="L110" t="n">
+      <c r="L110">
         <v>262.0879975904592</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:12">
+      <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>4541.391055638773</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>1047.766129123488</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>0.2307148</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>0.7692852</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>3.225188457736753</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>63.17640610434121</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>215.646711559503</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111">
         <v>672.9493748376391</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111">
         <v>14.01512682604025</v>
       </c>
-      <c r="K111" t="n">
+      <c r="K111">
         <v>54.88230181359108</v>
       </c>
-      <c r="L111" t="n">
+      <c r="L111">
         <v>189.7640432965168</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:12">
+      <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>3493.624926515285</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>858.2676560972451</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>0.2456668</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>0.7543332</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>3.042494328159117</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>46.73141750505707</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>152.4703054551618</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>457.3026632781362</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112">
         <v>11.03880557493399</v>
       </c>
-      <c r="K112" t="n">
+      <c r="K112">
         <v>40.86717498755083</v>
       </c>
-      <c r="L112" t="n">
+      <c r="L112">
         <v>134.8817414829257</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:12">
+      <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>2635.35727041804</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>688.3687593552712</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>0.2612051</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>0.7387949</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>2.870518927390598</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>33.89524971839011</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>105.7388879501047</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>304.8323578229743</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113">
         <v>8.513088550208712</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K113">
         <v>29.82836941261684</v>
       </c>
-      <c r="L113" t="n">
+      <c r="L113">
         <v>94.01456649537491</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:12">
+      <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>1946.988511062769</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>539.9577396764843</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>0.2773297</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>0.7226703</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>2.708629252030026</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>24.07849771747409</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>71.84363823171461</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>199.0934698728696</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114">
         <v>6.420848604267088</v>
       </c>
-      <c r="K114" t="n">
+      <c r="K114">
         <v>21.31528086240813</v>
       </c>
-      <c r="L114" t="n">
+      <c r="L114">
         <v>64.18619708275807</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:12">
+      <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>1407.030771386284</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>413.7243129399629</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>0.2940407</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>0.7059593</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>2.556205924098481</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>16.7315530471503</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>47.76514051424053</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>127.249831641155</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115">
         <v>4.730536125068467</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115">
         <v>14.89443225814104</v>
       </c>
-      <c r="L115" t="n">
+      <c r="L115">
         <v>42.87091622034993</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:12">
+      <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>993.3064584463211</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>309.2540461597607</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>0.311338</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>0.688662</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>2.412640890343794</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>11.35749565103758</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>31.03358746709023</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>79.48469112691447</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116">
         <v>3.400019212502634</v>
       </c>
-      <c r="K116" t="n">
+      <c r="K116">
         <v>10.16389613307258</v>
       </c>
-      <c r="L116" t="n">
+      <c r="L116">
         <v>27.9764839622089</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:12">
+      <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>684.0524122865604</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>225.2048980620823</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>0.3292217</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>0.6707783</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>2.27732892237962</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>7.520649682725812</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>19.67609181605264</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>48.45110365982423</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>2.380731801587935</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K117">
         <v>6.763876920569939</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L117">
         <v>17.81258782913632</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:12">
+      <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>458.8475142244781</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>159.5374263767316</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>0.3476916</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>0.6523084</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>2.149651788645548</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>4.850662124109961</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>12.15544213332683</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>28.77501184377159</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>1.621667764414606</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>4.383145118982005</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L118">
         <v>11.04871090856638</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:12">
+      <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>299.3100878477466</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>109.7713760979854</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>0.366748</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>0.6332519999999999</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>2.028944573832788</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>3.042430431844971</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>7.304780009216866</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>16.61956971044477</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119">
         <v>1.072889688479115</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K119">
         <v>2.761477354567399</v>
       </c>
-      <c r="L119" t="n">
+      <c r="L119">
         <v>6.665565789584375</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:12">
+      <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>189.5387117497612</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>73.23597655621727</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>0.3863906</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>0.6136094000000001</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>1.914433075351973</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>1.852524188294895</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>4.262349577371896</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>9.314789701227898</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120">
         <v>0.6882672429132476</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K120">
         <v>1.688587666088284</v>
       </c>
-      <c r="L120" t="n">
+      <c r="L120">
         <v>3.904088435016976</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:12">
+      <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>116.3027351935439</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>47.29097166330476</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>0.4066196</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>0.5933804</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>1.80510333666983</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>1.093006015062613</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>2.409825389077001</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121">
         <v>5.052440123856003</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121">
         <v>0.4273439121561094</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K121">
         <v>1.000320423175036</v>
       </c>
-      <c r="L121" t="n">
+      <c r="L121">
         <v>2.215500768928693</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:12">
+      <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>69.01176353023918</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>29.49803624337143</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>0.4274349</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>0.5725651</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>1.699437892909557</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>0.6236234100194803</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>1.316819374014388</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122">
         <v>2.642614734779003</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122">
         <v>0.2563061633647457</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K122">
         <v>0.5729765110189268</v>
       </c>
-      <c r="L122" t="n">
+      <c r="L122">
         <v>1.215180345753656</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:12">
+      <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>39.51372728686775</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>17.73520700876495</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>0.4488366</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>0.5511634000000001</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>1.594849813426555</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>0.3433317308847545</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>0.6931959639949072</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123">
         <v>1.325795360764614</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123">
         <v>0.1481729295792579</v>
       </c>
-      <c r="K123" t="n">
+      <c r="K123">
         <v>0.3166703476541812</v>
       </c>
-      <c r="L123" t="n">
+      <c r="L123">
         <v>0.6422038347347298</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:12">
+      <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>21.77852027810281</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>10.25386309852964</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>0.4708246</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>0.5291754</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>1.486434174378333</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>0.1819537347330061</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>0.3498642331101527</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124">
         <v>0.6325993967697071</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124">
         <v>0.082373359975167</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K124">
         <v>0.1684974180749232</v>
       </c>
-      <c r="L124" t="n">
+      <c r="L124">
         <v>0.3255334870805485</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:12">
+      <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>11.52465717957316</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>5.686253175278501</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>0.4933989</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>0.5066011</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>1.364096808692039</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>0.09258215419118497</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>0.1679104983771467</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125">
         <v>0.2827351636595544</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125">
         <v>0.04392301253611639</v>
       </c>
-      <c r="K125" t="n">
+      <c r="K125">
         <v>0.08612405809975622</v>
       </c>
-      <c r="L125" t="n">
+      <c r="L125">
         <v>0.1570360690056253</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:12">
+      <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>5.838404004294662</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>3.015883053256448</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>0.5165594999999999</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>0.4834405000000001</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>1.20567495548675</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>0.04509828957079222</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>0.0753283441859617</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126">
         <v>0.1148246652824078</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126">
         <v>0.02239995183802273</v>
       </c>
-      <c r="K126" t="n">
+      <c r="K126">
         <v>0.04220104556363984</v>
       </c>
-      <c r="L126" t="n">
+      <c r="L126">
         <v>0.07091201090586909</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:12">
+      <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>2.822520951038214</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>1.525026416232129</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>0.5403065</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>0.4596935</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>0.9596935</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>0.02096378813389286</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>0.03023005461516948</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127">
         <v>0.03949632109644609</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127">
         <v>0.01089122210900498</v>
       </c>
-      <c r="K127" t="n">
+      <c r="K127">
         <v>0.01980109372561711</v>
       </c>
-      <c r="L127" t="n">
+      <c r="L127">
         <v>0.02871096534222924</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:12">
+      <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>1.297494534806085</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>1.297494534806085</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>0</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>0.5</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>0.009266266481276613</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>0.009266266481276613</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128">
         <v>0.009266266481276613</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128">
         <v>0.008909871616612127</v>
       </c>
-      <c r="K128" t="n">
+      <c r="K128">
         <v>0.008909871616612127</v>
       </c>
-      <c r="L128" t="n">
+      <c r="L128">
         <v>0.008909871616612127</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>